--- a/medicine/Enfance/Madeleine_Gilard/Madeleine_Gilard.xlsx
+++ b/medicine/Enfance/Madeleine_Gilard/Madeleine_Gilard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madeleine Gilard, née le 6 décembre 1906 La Corogne (Espagne) et morte le 12 janvier 2002 à Paris 13e[1], est une romancière française, traductrice et adaptatrice de livres pour l'enfance et la jeunesse. Elle a été directrice littéraire des Éditions La Farandole de 1955 à 1980.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madeleine Gilard, née le 6 décembre 1906 La Corogne (Espagne) et morte le 12 janvier 2002 à Paris 13e, est une romancière française, traductrice et adaptatrice de livres pour l'enfance et la jeunesse. Elle a été directrice littéraire des Éditions La Farandole de 1955 à 1980.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fille d'un représentant commercial en vins et liqueurs issu d'une famille protestante du Sud-Ouest de la France[2], Madeleine Gilard naît et grandit en Espagne. Dans un de ses romans, Camille, paru en 1983, elle évoque sa ville de naissance[3] en puisant probablement dans ses souvenirs. Sa connaissance de la langue espagnole lui permettra de nombreuses traductions. Ayant fait ses études à la maison elle n'a aucun diplôme quand elle et sa famille rentrent en France, au début des années 1920. Elle apprend alors la sténodactylographie et devient secrétaire. Elle tient des emplois de journaliste et de traductrice dans une agence de presse jusqu'à la guerre. À sa connaissance de l'espagnol elle ajoute celle de la langue anglaise.
-En 1946, elle publie un premier roman. Au début des années 1950, elle occupe un emploi de traductrice au Mouvement mondial pour la paix, à Prague. C'est sans doute par cette filière, où elle ajoute le russe à sa panoplie de traductrice, qu'elle doit d'être nommée en juillet 1955 directrice littéraire d'une maison d'édition[4] qui vient d'être créée dans la mouvance du Parti communiste français : les Éditions La Farandole. La directrice administrative en est Paulette Michel[5], femme d'un homme d'influence des réseaux du communisme international, Jean Jérôme. Le créneau éditorial des Éditions La Farandole est la littérature d'enfance et de jeunesse, délaissée par le PCF depuis la fin des années 1930[6].
-Que deux femmes dirigent une maison d'édition dans les années 1950-1960, vaut à Madeleine Gilard et Paulette Michel, une mention dans le Dictionnaire universel des créatrices : « Très peu de femmes occupent des postes de directeur dans l'édition. Paulette Michel et Madeleine Gilard qui animent les éditions La Farandole représentent un cas isolé. »[7]
-Jusqu'en 1980, à La Farandole, elle tient un rôle essentiel dans cette petite structure éditoriale, reconnue par la profession, y publiant elle-même ses œuvres et collaborant à de nombreux ouvrages, pour toutes les tranches d'âge de l'enfance jusqu'à l'adolescence. Après sa retraite de La Farandole, elle publie encore plusieurs livres et obtient en 1983, pour l'ensemble de son œuvre, le Grand prix de la littérature enfantine de la ville de Paris, qui lui est remis par Jacques Chirac[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille d'un représentant commercial en vins et liqueurs issu d'une famille protestante du Sud-Ouest de la France, Madeleine Gilard naît et grandit en Espagne. Dans un de ses romans, Camille, paru en 1983, elle évoque sa ville de naissance en puisant probablement dans ses souvenirs. Sa connaissance de la langue espagnole lui permettra de nombreuses traductions. Ayant fait ses études à la maison elle n'a aucun diplôme quand elle et sa famille rentrent en France, au début des années 1920. Elle apprend alors la sténodactylographie et devient secrétaire. Elle tient des emplois de journaliste et de traductrice dans une agence de presse jusqu'à la guerre. À sa connaissance de l'espagnol elle ajoute celle de la langue anglaise.
+En 1946, elle publie un premier roman. Au début des années 1950, elle occupe un emploi de traductrice au Mouvement mondial pour la paix, à Prague. C'est sans doute par cette filière, où elle ajoute le russe à sa panoplie de traductrice, qu'elle doit d'être nommée en juillet 1955 directrice littéraire d'une maison d'édition qui vient d'être créée dans la mouvance du Parti communiste français : les Éditions La Farandole. La directrice administrative en est Paulette Michel, femme d'un homme d'influence des réseaux du communisme international, Jean Jérôme. Le créneau éditorial des Éditions La Farandole est la littérature d'enfance et de jeunesse, délaissée par le PCF depuis la fin des années 1930.
+Que deux femmes dirigent une maison d'édition dans les années 1950-1960, vaut à Madeleine Gilard et Paulette Michel, une mention dans le Dictionnaire universel des créatrices : « Très peu de femmes occupent des postes de directeur dans l'édition. Paulette Michel et Madeleine Gilard qui animent les éditions La Farandole représentent un cas isolé. »
+Jusqu'en 1980, à La Farandole, elle tient un rôle essentiel dans cette petite structure éditoriale, reconnue par la profession, y publiant elle-même ses œuvres et collaborant à de nombreux ouvrages, pour toutes les tranches d'âge de l'enfance jusqu'à l'adolescence. Après sa retraite de La Farandole, elle publie encore plusieurs livres et obtient en 1983, pour l'ensemble de son œuvre, le Grand prix de la littérature enfantine de la ville de Paris, qui lui est remis par Jacques Chirac.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Créations aux éditions La Farandole
-Victoire sur Arcadius, coll. « mille épisodes », 1956 (ill. Madeleine Gilard)
+          <t>Créations aux éditions La Farandole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Victoire sur Arcadius, coll. « mille épisodes », 1956 (ill. Madeleine Gilard)
 Marinette et l'éléphant, coll. « mille épisodes », 1957 (ill. Luc Hardy)
 Le voyage de Pibale, coll. « mille images », 1958, (ill. Enrique Soto)
 Christine et François, coll. « mille images », 1961, (ill. May Angeli)
@@ -574,9 +593,43 @@
 Camille : de la main de Camille, printemps 1830, coll « LF roman », 1983
 Drôle d'héritage, coll. « LF 8, 9, 10 », 1987, (ill. Manuel Gracia)
 Le Coup de balai de la sorcière, (de Joma), (adaptation de l'espagnol), coll. « mille images », 1990
-Jeannot chez les dingos, (de Jané Jordi et Joma) (adaptation de l'espagnol), coll. « mille images »1991.
-Traductions aux éditions La Farandole
-L'oignon obstiné, auteur N. Dilaktorskaïa, traduit du russe avec Marie Calschi, coll. « mille épisodes », 1957
+Jeannot chez les dingos, (de Jané Jordi et Joma) (adaptation de l'espagnol), coll. « mille images »1991.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Madeleine_Gilard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_Gilard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions aux éditions La Farandole</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'oignon obstiné, auteur N. Dilaktorskaïa, traduit du russe avec Marie Calschi, coll. « mille épisodes », 1957
 La Terre de Sannikov, auteur Vladimir Obroutchev, traduit du russe avec Marie Calschi, coll. « prélude », 1957
 Allan Montagu, auteur Upton Sinclair, traduit de l'américain, coll. « prélude », 1962
 Le Passager clandestin, auteur Ana Maria Matute, traduit de l'espagnol, coll. « mille épisodes », 1973
@@ -585,16 +638,84 @@
 Où vas-tu Martin, auteur Joyce Rathborne, traduit de l'anglais, coll. « mille épisodes », 1980
 Pourquoi le moustique bourdonne à nos oreilles, auteur Verna Aardema, traduit de l'américain, coll. « feu follet », 1981
 Le Pays de l'ardoise, auteur Ana Maria Matute, traduit de l'espagnol, coll. « LF 8, 9, 10 », 1982
-Les idées folles d'Anastasia, auteur Lois Lowry, traduit de l'américain, coll. « LF roman », 1983
-Autres éditeurs
-Les Enfants Escoudeyran, éditions Confluences, 1946
+Les idées folles d'Anastasia, auteur Lois Lowry, traduit de l'américain, coll. « LF roman », 1983</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Madeleine_Gilard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_Gilard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres éditeurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les Enfants Escoudeyran, éditions Confluences, 1946
 Le Bonhomme de pain d'épices, éditions du Sorbier, 1983, (ill. Jack Kent)
 Boucle d'or et les trois ours, éditions du Sorbier, 1983, (ill. Jack Kent)
 Drôles de jumelles, éditions du Sorbier, 1984, (ill. Sylvie Chrétien)
 Ascenseur interdit, éditions du Sorbier, 1986, (ill. Sylvie Chrétien)
-Les plus belles légendes de sorcières, (participation), éditions Père Castor-Flammarion, 1999
-Autres traductions
-Pas de bataille pour un rosier, auteur Josep Albanell, traduit de l'espagnol, éditions du Sorbier, 1991
+Les plus belles légendes de sorcières, (participation), éditions Père Castor-Flammarion, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Madeleine_Gilard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Madeleine_Gilard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres traductions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pas de bataille pour un rosier, auteur Josep Albanell, traduit de l'espagnol, éditions du Sorbier, 1991
 A la poursuite du monstre, auteur Patrick Benson, traduit de l'anglais, éditions du Sorbier, 1995
 Un Château en Dordogne, auteur Jeremy Josephs, traduit de l'anglais, éditions Ramsay, 1997</t>
         </is>
